--- a/biology/Zoologie/Dermophthirius_melanopteri/Dermophthirius_melanopteri.xlsx
+++ b/biology/Zoologie/Dermophthirius_melanopteri/Dermophthirius_melanopteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermophthirius melanopteri est une espèce de monogènes de la famille des Microbothriidae. C'est un parasite que l'on rencontre sur la peau des requins du genre Carcharhinus.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur description initiale[2], les auteurs indique que Dermophthirius melanopteri est de forme ovoïde et mesure de 2,4 à 2,9 mm de long pour 1,3 à 2,1 mm de large[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur description initiale, les auteurs indique que Dermophthirius melanopteri est de forme ovoïde et mesure de 2,4 à 2,9 mm de long pour 1,3 à 2,1 mm de large.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, melanopteri, reprend le nom de l'hôte sur lequel il a été découvert, Carcharhinus melanopterus, le Requin à pointes noires[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, melanopteri, reprend le nom de l'hôte sur lequel il a été découvert, Carcharhinus melanopterus, le Requin à pointes noires.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Paul J. Cheung, Ross F. Nigrelli, George D. Ruggieri et Gerald L. Crow, « A New Microbothriid (Monogenean) Causing Skin Lesions on the Pacific Blacktip Reef Shark, Carcharhinus melanopterus (Quoy and Gaimard) », Journal of Aquariculture &amp; Aquatic Sciences, vol. 5, no 2,‎ 1988, p. 21-25 (ISSN 0733-2076, lire en ligne)</t>
         </is>
